--- a/biology/Botanique/Lyramulaceae/Lyramulaceae.xlsx
+++ b/biology/Botanique/Lyramulaceae/Lyramulaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Lyramulaceae sont une famille d'algues unicellulaires de l'ordre des Dictyochales[1].
-Le genre fossile Lyramula a été décrit par G Dallas Hanna en 1928 dans une roche diatomite du Crétacé de Californie[2],[3], et a également été trouvé dans des roches des montagnes de l'Oural et de l'île Seymour dans la péninsule antarctique[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Lyramulaceae sont une famille d'algues unicellulaires de l'ordre des Dictyochales.
+Le genre fossile Lyramula a été décrit par G Dallas Hanna en 1928 dans une roche diatomite du Crétacé de Californie et a également été trouvé dans des roches des montagnes de l'Oural et de l'île Seymour dans la péninsule antarctique.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Lyramula, dérivé du latin lyra, lyre, en référence à la forme « en lyre » du squelette siliceux, le suffixe mula n'étant pas clair ; il pourrait s'agir de l'accusatif lyram suivi de ula pour l'euphonie.
 </t>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le squelette de ces silicoflagellés peut être un simple tube robuste en silice en forme de « U » (Lyramula simplex), ou constitué d'une épine « vertébrale » à la jonction de deux branches de silice, formant un « Y » (Lyramula  furcula)[2],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le squelette de ces silicoflagellés peut être un simple tube robuste en silice en forme de « U » (Lyramula simplex), ou constitué d'une épine « vertébrale » à la jonction de deux branches de silice, formant un « Y » (Lyramula  furcula),.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (6 janvier 2022)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (6 janvier 2022) :
 †Lyramula Hanna, 1928</t>
         </is>
       </c>
